--- a/app/resource/xlsx/fee_proposal_template_4.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DB009-D794-4BA5-AB76-EB331076FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD11EDB1-477C-4EF6-B3E3-7781C5E8C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Receive base building drawings detailing information of service provision</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +623,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -703,7 +714,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,7 +780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,12 +787,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -792,11 +796,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -812,14 +812,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -848,15 +872,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,13 +1340,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X356"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A266" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277:E277"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A258" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278:G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="40" customWidth="1"/>
     <col min="2" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1339,14 +1357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>140</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1354,10 +1372,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1382,7 +1400,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1392,7 +1410,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="41"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1407,15 +1425,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1440,26 +1458,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1467,93 +1485,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1572,62 +1590,62 @@
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1648,7 +1666,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
         <v>105</v>
       </c>
@@ -1660,19 +1678,19 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1680,39 +1698,39 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1723,58 +1741,58 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -1800,52 +1818,52 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1862,7 +1880,7 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1878,7 +1896,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -1891,37 +1909,37 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -1931,7 +1949,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -1944,7 +1962,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -1959,7 +1977,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -1975,7 +1993,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -1984,22 +2002,22 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
@@ -2007,7 +2025,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2129,7 +2147,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="43"/>
+      <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
@@ -2154,22 +2172,22 @@
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="43"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="C72" s="3"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="C73" s="3"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="C74" s="3"/>
-      <c r="I74" s="43"/>
+      <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
@@ -3639,10 +3657,10 @@
       <c r="H221" s="5"/>
     </row>
     <row r="222" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="33" t="s">
+      <c r="A222" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D222" s="16"/>
@@ -3650,13 +3668,13 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
       <c r="H222" s="16"/>
-      <c r="I222" s="33"/>
+      <c r="I222" s="30"/>
     </row>
     <row r="223" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="44" t="s">
+      <c r="A223" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D223" s="16"/>
@@ -3664,69 +3682,69 @@
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
       <c r="H223" s="16"/>
-      <c r="I223" s="33"/>
+      <c r="I223" s="30"/>
     </row>
     <row r="224" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
-      <c r="B224" s="48" t="s">
+      <c r="A224" s="30"/>
+      <c r="B224" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C224" s="48"/>
-      <c r="D224" s="48"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
-      <c r="G224" s="48"/>
-      <c r="H224" s="48"/>
-      <c r="I224" s="48"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="53"/>
+      <c r="E224" s="53"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
+      <c r="H224" s="53"/>
+      <c r="I224" s="53"/>
     </row>
     <row r="225" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="33"/>
-      <c r="B225" s="48"/>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
-      <c r="G225" s="48"/>
-      <c r="H225" s="48"/>
-      <c r="I225" s="48"/>
+      <c r="A225" s="30"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="53"/>
+      <c r="E225" s="53"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="53"/>
+      <c r="I225" s="53"/>
     </row>
     <row r="226" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="33"/>
-      <c r="B226" s="48"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
-      <c r="G226" s="48"/>
-      <c r="H226" s="48"/>
-      <c r="I226" s="48"/>
+      <c r="A226" s="30"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="53"/>
+      <c r="E226" s="53"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="53"/>
+      <c r="I226" s="53"/>
     </row>
     <row r="227" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="33"/>
-      <c r="B227" s="48"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
-      <c r="G227" s="48"/>
-      <c r="H227" s="48"/>
-      <c r="I227" s="48"/>
+      <c r="A227" s="30"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="53"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
     </row>
     <row r="228" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
-      <c r="B228" s="34"/>
+      <c r="A228" s="30"/>
+      <c r="B228" s="31"/>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
       <c r="H228" s="16"/>
-      <c r="I228" s="33"/>
+      <c r="I228" s="30"/>
     </row>
     <row r="229" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="44">
+      <c r="A229" s="30">
         <v>3.2</v>
       </c>
-      <c r="B229" s="34" t="s">
+      <c r="B229" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D229" s="16"/>
@@ -3734,34 +3752,34 @@
       <c r="F229" s="16"/>
       <c r="G229" s="16"/>
       <c r="H229" s="16"/>
-      <c r="I229" s="33"/>
+      <c r="I229" s="30"/>
     </row>
     <row r="230" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
-      <c r="B230" s="48" t="s">
+      <c r="A230" s="30"/>
+      <c r="B230" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
-      <c r="G230" s="48"/>
-      <c r="H230" s="48"/>
-      <c r="I230" s="48"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
+      <c r="H230" s="53"/>
+      <c r="I230" s="53"/>
     </row>
     <row r="231" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="33"/>
-      <c r="B231" s="48"/>
-      <c r="C231" s="48"/>
-      <c r="D231" s="48"/>
-      <c r="E231" s="48"/>
-      <c r="F231" s="48"/>
-      <c r="G231" s="48"/>
-      <c r="H231" s="48"/>
-      <c r="I231" s="48"/>
+      <c r="A231" s="30"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="53"/>
+      <c r="H231" s="53"/>
+      <c r="I231" s="53"/>
     </row>
     <row r="232" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B232" s="7" t="s">
@@ -3772,10 +3790,10 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
       <c r="H232" s="16"/>
-      <c r="I232" s="33"/>
+      <c r="I232" s="30"/>
     </row>
     <row r="233" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B233" s="7" t="s">
@@ -3786,10 +3804,10 @@
       <c r="F233" s="16"/>
       <c r="G233" s="16"/>
       <c r="H233" s="16"/>
-      <c r="I233" s="33"/>
+      <c r="I233" s="30"/>
     </row>
     <row r="234" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B234" s="7" t="s">
@@ -3800,43 +3818,43 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
       <c r="H234" s="16"/>
-      <c r="I234" s="33"/>
+      <c r="I234" s="30"/>
     </row>
     <row r="235" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
+      <c r="A235" s="38"/>
       <c r="B235" s="7"/>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
       <c r="H235" s="16"/>
-      <c r="I235" s="33"/>
+      <c r="I235" s="30"/>
     </row>
     <row r="236" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="38"/>
       <c r="B236" s="7"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
       <c r="H236" s="16"/>
-      <c r="I236" s="33"/>
+      <c r="I236" s="30"/>
     </row>
     <row r="237" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="33"/>
-      <c r="B237" s="34"/>
+      <c r="A237" s="30"/>
+      <c r="B237" s="31"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
       <c r="H237" s="16"/>
-      <c r="I237" s="33"/>
+      <c r="I237" s="30"/>
     </row>
     <row r="238" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="44">
+      <c r="A238" s="30">
         <v>3.3</v>
       </c>
-      <c r="B238" s="34" t="s">
+      <c r="B238" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D238" s="16"/>
@@ -3844,24 +3862,24 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
       <c r="H238" s="16"/>
-      <c r="I238" s="33"/>
+      <c r="I238" s="30"/>
     </row>
     <row r="239" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="44"/>
-      <c r="B239" s="52" t="s">
+      <c r="A239" s="30"/>
+      <c r="B239" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C239" s="52"/>
-      <c r="D239" s="52"/>
-      <c r="E239" s="52"/>
-      <c r="F239" s="52"/>
-      <c r="G239" s="52"/>
-      <c r="H239" s="52"/>
-      <c r="I239" s="52"/>
-      <c r="Q239" s="34"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="57"/>
+      <c r="E239" s="57"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="57"/>
+      <c r="H239" s="57"/>
+      <c r="I239" s="57"/>
+      <c r="Q239" s="31"/>
     </row>
     <row r="240" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="str">
+      <c r="A240" s="38" t="str">
         <f t="shared" ref="A240:A249" si="0">IF(B240&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -3876,7 +3894,7 @@
       <c r="Q240" s="10"/>
     </row>
     <row r="241" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="str">
+      <c r="A241" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3891,7 +3909,7 @@
       <c r="Q241" s="10"/>
     </row>
     <row r="242" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="str">
+      <c r="A242" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3907,7 +3925,7 @@
       <c r="R242" s="7"/>
     </row>
     <row r="243" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="str">
+      <c r="A243" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3922,7 +3940,7 @@
       <c r="Q243" s="10"/>
     </row>
     <row r="244" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="str">
+      <c r="A244" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3937,7 +3955,7 @@
       <c r="Q244" s="10"/>
     </row>
     <row r="245" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="str">
+      <c r="A245" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3953,7 +3971,7 @@
       <c r="R245" s="7"/>
     </row>
     <row r="246" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="str">
+      <c r="A246" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3968,7 +3986,7 @@
       <c r="Q246" s="10"/>
     </row>
     <row r="247" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="str">
+      <c r="A247" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3979,7 +3997,7 @@
       <c r="Q247" s="10"/>
     </row>
     <row r="248" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="str">
+      <c r="A248" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3994,7 +4012,7 @@
       <c r="Q248" s="10"/>
     </row>
     <row r="249" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="str">
+      <c r="A249" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4009,7 +4027,7 @@
       <c r="Q249" s="10"/>
     </row>
     <row r="250" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="45"/>
+      <c r="A250" s="43"/>
       <c r="M250" s="5" t="str">
         <f t="array" ref="M250">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -4019,10 +4037,10 @@
       <c r="P250" s="9"/>
     </row>
     <row r="251" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="44">
+      <c r="A251" s="30">
         <v>3.4</v>
       </c>
-      <c r="B251" s="34" t="s">
+      <c r="B251" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M251" s="5" t="str">
@@ -4035,17 +4053,17 @@
       <c r="Q251" s="5"/>
     </row>
     <row r="252" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
-      <c r="B252" s="49" t="s">
+      <c r="A252" s="30"/>
+      <c r="B252" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C252" s="49"/>
-      <c r="D252" s="49"/>
-      <c r="E252" s="49"/>
-      <c r="F252" s="49"/>
-      <c r="G252" s="49"/>
-      <c r="H252" s="49"/>
-      <c r="I252" s="49"/>
+      <c r="C252" s="54"/>
+      <c r="D252" s="54"/>
+      <c r="E252" s="54"/>
+      <c r="F252" s="54"/>
+      <c r="G252" s="54"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="54"/>
       <c r="M252" s="7"/>
       <c r="N252" s="23"/>
       <c r="O252" s="22"/>
@@ -4053,11 +4071,11 @@
       <c r="Q252" s="5"/>
     </row>
     <row r="253" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
+      <c r="A253" s="30"/>
       <c r="B253" t="s">
         <v>9</v>
       </c>
-      <c r="E253" s="37" t="s">
+      <c r="E253" s="33" t="s">
         <v>117</v>
       </c>
       <c r="M253" s="12"/>
@@ -4067,7 +4085,7 @@
       <c r="Q253" s="5"/>
     </row>
     <row r="254" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="38"/>
       <c r="B254" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4097,7 @@
       <c r="Q254" s="5"/>
     </row>
     <row r="255" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="38"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="16"/>
@@ -4095,10 +4113,10 @@
       <c r="Q255" s="5"/>
     </row>
     <row r="256" spans="1:18" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="33" t="s">
+      <c r="A256" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B256" s="34" t="s">
+      <c r="B256" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D256" s="16"/>
@@ -4106,58 +4124,58 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
       <c r="H256" s="16"/>
-      <c r="I256" s="33"/>
+      <c r="I256" s="30"/>
       <c r="M256"/>
       <c r="N256"/>
       <c r="O256" s="11"/>
       <c r="P256"/>
     </row>
     <row r="257" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="45"/>
-      <c r="B257" s="52" t="s">
+      <c r="A257" s="43"/>
+      <c r="B257" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C257" s="52"/>
-      <c r="D257" s="52"/>
-      <c r="E257" s="52"/>
-      <c r="F257" s="52"/>
-      <c r="G257" s="52"/>
-      <c r="H257" s="52"/>
-      <c r="I257" s="52"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
       <c r="M257"/>
       <c r="N257"/>
     </row>
     <row r="258" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="28" t="s">
+      <c r="A258" s="38"/>
+      <c r="B258" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C258" s="28"/>
-      <c r="D258" s="50" t="s">
+      <c r="C258" s="27"/>
+      <c r="D258" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E258" s="50"/>
-      <c r="F258" s="50" t="s">
+      <c r="E258" s="55"/>
+      <c r="F258" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G258" s="50"/>
+      <c r="G258" s="55"/>
       <c r="H258" s="9"/>
       <c r="Q258" s="5"/>
     </row>
     <row r="259" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="28" t="s">
+      <c r="A259" s="38"/>
+      <c r="B259" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C259" s="28"/>
-      <c r="D259" s="50" t="s">
+      <c r="C259" s="27"/>
+      <c r="D259" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E259" s="50"/>
-      <c r="F259" s="51">
+      <c r="E259" s="55"/>
+      <c r="F259" s="56">
         <v>10000000</v>
       </c>
-      <c r="G259" s="51"/>
+      <c r="G259" s="56"/>
       <c r="H259" s="23"/>
       <c r="I259" s="7"/>
       <c r="M259" s="5"/>
@@ -4167,24 +4185,24 @@
       <c r="Q259" s="5"/>
     </row>
     <row r="260" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="28" t="s">
+      <c r="A260" s="38"/>
+      <c r="B260" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C260" s="28"/>
-      <c r="D260" s="50" t="s">
+      <c r="C260" s="27"/>
+      <c r="D260" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E260" s="50"/>
-      <c r="F260" s="51">
+      <c r="E260" s="55"/>
+      <c r="F260" s="56">
         <v>20000000</v>
       </c>
-      <c r="G260" s="51"/>
+      <c r="G260" s="56"/>
       <c r="H260" s="23"/>
       <c r="M260" s="9"/>
     </row>
     <row r="261" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="38"/>
       <c r="B261" s="12" t="s">
         <v>118</v>
       </c>
@@ -4197,7 +4215,7 @@
       <c r="M261" s="23"/>
     </row>
     <row r="262" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="38"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
@@ -4209,66 +4227,66 @@
       <c r="M262" s="23"/>
     </row>
     <row r="263" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="33" t="s">
+      <c r="A263" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B263" s="34" t="s">
+      <c r="B263" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="35"/>
-      <c r="I263" s="33"/>
+      <c r="C263" s="32"/>
+      <c r="I263" s="30"/>
       <c r="M263" s="22"/>
     </row>
     <row r="264" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="48" t="s">
+      <c r="A264" s="38"/>
+      <c r="B264" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C264" s="48"/>
-      <c r="D264" s="48"/>
-      <c r="E264" s="48"/>
-      <c r="F264" s="48"/>
-      <c r="G264" s="48"/>
-      <c r="H264" s="48"/>
-      <c r="I264" s="48"/>
+      <c r="C264" s="53"/>
+      <c r="D264" s="53"/>
+      <c r="E264" s="53"/>
+      <c r="F264" s="53"/>
+      <c r="G264" s="53"/>
+      <c r="H264" s="53"/>
+      <c r="I264" s="53"/>
       <c r="M264" s="12"/>
     </row>
     <row r="265" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="48"/>
-      <c r="C265" s="48"/>
-      <c r="D265" s="48"/>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
-      <c r="G265" s="48"/>
-      <c r="H265" s="48"/>
-      <c r="I265" s="48"/>
+      <c r="A265" s="38"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="53"/>
+      <c r="D265" s="53"/>
+      <c r="E265" s="53"/>
+      <c r="F265" s="53"/>
+      <c r="G265" s="53"/>
+      <c r="H265" s="53"/>
+      <c r="I265" s="53"/>
     </row>
     <row r="266" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="48"/>
-      <c r="C266" s="48"/>
-      <c r="D266" s="48"/>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
-      <c r="G266" s="48"/>
-      <c r="H266" s="48"/>
-      <c r="I266" s="48"/>
+      <c r="A266" s="38"/>
+      <c r="B266" s="53"/>
+      <c r="C266" s="53"/>
+      <c r="D266" s="53"/>
+      <c r="E266" s="53"/>
+      <c r="F266" s="53"/>
+      <c r="G266" s="53"/>
+      <c r="H266" s="53"/>
+      <c r="I266" s="53"/>
     </row>
     <row r="267" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="48"/>
-      <c r="C267" s="48"/>
-      <c r="D267" s="48"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
-      <c r="G267" s="48"/>
-      <c r="H267" s="48"/>
-      <c r="I267" s="48"/>
+      <c r="A267" s="38"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="53"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="53"/>
+      <c r="G267" s="53"/>
+      <c r="H267" s="53"/>
+      <c r="I267" s="53"/>
       <c r="M267" s="5"/>
     </row>
     <row r="268" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+      <c r="A268" s="38"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
@@ -4279,10 +4297,10 @@
       <c r="I268" s="13"/>
     </row>
     <row r="269" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="33" t="s">
+      <c r="A269" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B269" s="34" t="s">
+      <c r="B269" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D269" s="16"/>
@@ -4290,7 +4308,7 @@
       <c r="F269" s="16"/>
       <c r="G269" s="16"/>
       <c r="H269" s="16"/>
-      <c r="I269" s="33"/>
+      <c r="I269" s="30"/>
     </row>
     <row r="270" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
@@ -4307,101 +4325,101 @@
       <c r="I270" s="21"/>
     </row>
     <row r="271" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="48" t="s">
+      <c r="A271" s="38"/>
+      <c r="B271" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C271" s="48"/>
-      <c r="D271" s="48"/>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
-      <c r="G271" s="48"/>
-      <c r="H271" s="48"/>
-      <c r="I271" s="48"/>
+      <c r="C271" s="53"/>
+      <c r="D271" s="53"/>
+      <c r="E271" s="53"/>
+      <c r="F271" s="53"/>
+      <c r="G271" s="53"/>
+      <c r="H271" s="53"/>
+      <c r="I271" s="53"/>
     </row>
     <row r="272" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="48"/>
-      <c r="C272" s="48"/>
-      <c r="D272" s="48"/>
-      <c r="E272" s="48"/>
-      <c r="F272" s="48"/>
-      <c r="G272" s="48"/>
-      <c r="H272" s="48"/>
-      <c r="I272" s="48"/>
+      <c r="A272" s="38"/>
+      <c r="B272" s="53"/>
+      <c r="C272" s="53"/>
+      <c r="D272" s="53"/>
+      <c r="E272" s="53"/>
+      <c r="F272" s="53"/>
+      <c r="G272" s="53"/>
+      <c r="H272" s="53"/>
+      <c r="I272" s="53"/>
     </row>
     <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="53" t="s">
+      <c r="A273" s="38"/>
+      <c r="B273" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C273" s="54"/>
-      <c r="D273" s="54"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="39" t="s">
+      <c r="C273" s="59"/>
+      <c r="D273" s="59"/>
+      <c r="E273" s="60"/>
+      <c r="F273" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G273" s="39" t="s">
+      <c r="G273" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H273" s="9"/>
     </row>
     <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="56"/>
-      <c r="C274" s="57"/>
-      <c r="D274" s="57"/>
-      <c r="E274" s="58"/>
-      <c r="F274" s="31"/>
-      <c r="G274" s="31"/>
+      <c r="A274" s="38"/>
+      <c r="B274" s="49"/>
+      <c r="C274" s="50"/>
+      <c r="D274" s="50"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="48"/>
+      <c r="G274" s="48"/>
       <c r="H274" s="23"/>
       <c r="I274" s="7"/>
     </row>
     <row r="275" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="56"/>
-      <c r="C275" s="57"/>
-      <c r="D275" s="57"/>
-      <c r="E275" s="58"/>
-      <c r="F275" s="31"/>
-      <c r="G275" s="31"/>
+      <c r="A275" s="38"/>
+      <c r="B275" s="49"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="50"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="48"/>
       <c r="H275" s="23"/>
       <c r="I275" s="7"/>
     </row>
     <row r="276" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="56"/>
-      <c r="C276" s="57"/>
-      <c r="D276" s="57"/>
-      <c r="E276" s="58"/>
-      <c r="F276" s="31"/>
-      <c r="G276" s="31"/>
+      <c r="A276" s="38"/>
+      <c r="B276" s="49"/>
+      <c r="C276" s="50"/>
+      <c r="D276" s="50"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="48"/>
       <c r="H276" s="23"/>
       <c r="I276" s="7"/>
     </row>
     <row r="277" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="56"/>
-      <c r="C277" s="57"/>
-      <c r="D277" s="57"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="31"/>
-      <c r="G277" s="31"/>
+      <c r="A277" s="38"/>
+      <c r="B277" s="49"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="50"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="48"/>
       <c r="H277" s="23"/>
       <c r="I277" s="7"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="C278" s="59" t="s">
+      <c r="A278" s="38"/>
+      <c r="C278" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D278" s="59"/>
-      <c r="E278" s="59"/>
-      <c r="F278" s="40">
+      <c r="D278" s="61"/>
+      <c r="E278" s="61"/>
+      <c r="F278" s="68">
         <f>SUM(F275:F277)</f>
         <v>0</v>
       </c>
-      <c r="G278" s="40">
+      <c r="G278" s="68">
         <f>SUM(G275:G277)</f>
         <v>0</v>
       </c>
@@ -4422,42 +4440,42 @@
       <c r="H279" s="23"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="48" t="s">
+      <c r="A280" s="38"/>
+      <c r="B280" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C280" s="48"/>
-      <c r="D280" s="48"/>
-      <c r="E280" s="48"/>
-      <c r="F280" s="48"/>
-      <c r="G280" s="48"/>
-      <c r="H280" s="48"/>
-      <c r="I280" s="48"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="53"/>
+      <c r="H280" s="53"/>
+      <c r="I280" s="53"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="21"/>
-      <c r="B281" s="48"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="48"/>
-      <c r="H281" s="48"/>
-      <c r="I281" s="48"/>
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="53"/>
+      <c r="H281" s="53"/>
+      <c r="I281" s="53"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
-      <c r="B282" s="48"/>
-      <c r="C282" s="48"/>
-      <c r="D282" s="48"/>
-      <c r="E282" s="48"/>
-      <c r="F282" s="48"/>
-      <c r="G282" s="48"/>
-      <c r="H282" s="48"/>
-      <c r="I282" s="48"/>
+      <c r="B282" s="53"/>
+      <c r="C282" s="53"/>
+      <c r="D282" s="53"/>
+      <c r="E282" s="53"/>
+      <c r="F282" s="53"/>
+      <c r="G282" s="53"/>
+      <c r="H282" s="53"/>
+      <c r="I282" s="53"/>
     </row>
     <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="38"/>
       <c r="B283" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4491,7 @@
       <c r="H283" s="24"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="38"/>
       <c r="B284" t="s">
         <v>133</v>
       </c>
@@ -4489,7 +4507,7 @@
       <c r="H284" s="24"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="38"/>
       <c r="B285" t="s">
         <v>134</v>
       </c>
@@ -4505,7 +4523,7 @@
       <c r="H285" s="24"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="38"/>
       <c r="E286" s="25"/>
       <c r="F286" s="25"/>
       <c r="H286" s="24"/>
@@ -4522,19 +4540,19 @@
       <c r="H287" s="24"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
+      <c r="A288" s="38"/>
       <c r="B288" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C288" s="41"/>
-      <c r="D288" s="41"/>
-      <c r="E288" s="41"/>
-      <c r="F288" s="40"/>
-      <c r="G288" s="40"/>
+      <c r="C288" s="36"/>
+      <c r="D288" s="36"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="35"/>
+      <c r="G288" s="35"/>
       <c r="H288" s="23"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="46"/>
+      <c r="A289" s="44"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
       <c r="D289" s="17"/>
@@ -4545,10 +4563,10 @@
       <c r="I289" s="17"/>
     </row>
     <row r="290" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="33" t="s">
+      <c r="A290" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B290" s="34" t="s">
+      <c r="B290" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4569,7 +4587,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
+      <c r="A293" s="38"/>
       <c r="B293" s="12" t="s">
         <v>45</v>
       </c>
@@ -4578,11 +4596,13 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="12"/>
+      <c r="A294" s="38"/>
+      <c r="B294" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
+      <c r="A295" s="38"/>
       <c r="B295" s="12" t="s">
         <v>46</v>
       </c>
@@ -4591,700 +4611,700 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
+      <c r="A296" s="38"/>
       <c r="B296" s="12"/>
       <c r="F296" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+      <c r="A297" s="38"/>
       <c r="B297" s="12"/>
       <c r="F297" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
+      <c r="A298" s="38"/>
       <c r="B298" s="12"/>
       <c r="F298" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
+      <c r="A299" s="38"/>
       <c r="B299" s="12"/>
       <c r="F299" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+      <c r="A300" s="38"/>
       <c r="B300" s="12"/>
       <c r="F300" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="A301" s="38"/>
       <c r="B301" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+      <c r="A302" s="38"/>
       <c r="B302" s="10"/>
     </row>
     <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+      <c r="A303" s="38"/>
       <c r="B303" s="10"/>
     </row>
     <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+      <c r="A304" s="38"/>
       <c r="B304" s="10"/>
     </row>
     <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A305" s="38"/>
       <c r="B305" s="10"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
+      <c r="A306" s="38"/>
       <c r="B306" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F306" s="60">
+      <c r="F306" s="62">
         <f ca="1">TODAY()</f>
-        <v>45320</v>
-      </c>
-      <c r="G306" s="60"/>
+        <v>45357</v>
+      </c>
+      <c r="G306" s="62"/>
     </row>
     <row r="307" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="36" t="s">
+      <c r="A307" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C307" s="6"/>
       <c r="I307" s="21"/>
     </row>
     <row r="308" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="8">
+      <c r="A308" s="46">
         <v>1</v>
       </c>
-      <c r="B308" s="47" t="s">
+      <c r="B308" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C308" s="47"/>
-      <c r="D308" s="47"/>
-      <c r="E308" s="47"/>
-      <c r="F308" s="47"/>
-      <c r="G308" s="47"/>
-      <c r="H308" s="47"/>
-      <c r="I308" s="47"/>
+      <c r="C308" s="52"/>
+      <c r="D308" s="52"/>
+      <c r="E308" s="52"/>
+      <c r="F308" s="52"/>
+      <c r="G308" s="52"/>
+      <c r="H308" s="52"/>
+      <c r="I308" s="52"/>
     </row>
     <row r="309" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="8">
+      <c r="A309" s="46">
         <v>2</v>
       </c>
-      <c r="B309" s="47" t="s">
+      <c r="B309" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C309" s="47"/>
-      <c r="D309" s="47"/>
-      <c r="E309" s="47"/>
-      <c r="F309" s="47"/>
-      <c r="G309" s="47"/>
-      <c r="H309" s="47"/>
-      <c r="I309" s="47"/>
+      <c r="C309" s="52"/>
+      <c r="D309" s="52"/>
+      <c r="E309" s="52"/>
+      <c r="F309" s="52"/>
+      <c r="G309" s="52"/>
+      <c r="H309" s="52"/>
+      <c r="I309" s="52"/>
     </row>
     <row r="310" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8">
+      <c r="A310" s="46">
         <v>3</v>
       </c>
-      <c r="B310" s="47" t="s">
+      <c r="B310" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C310" s="47"/>
-      <c r="D310" s="47"/>
-      <c r="E310" s="47"/>
-      <c r="F310" s="47"/>
-      <c r="G310" s="47"/>
-      <c r="H310" s="47"/>
-      <c r="I310" s="47"/>
+      <c r="C310" s="52"/>
+      <c r="D310" s="52"/>
+      <c r="E310" s="52"/>
+      <c r="F310" s="52"/>
+      <c r="G310" s="52"/>
+      <c r="H310" s="52"/>
+      <c r="I310" s="52"/>
     </row>
     <row r="311" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="8">
+      <c r="A311" s="46">
         <v>4</v>
       </c>
-      <c r="B311" s="47" t="s">
+      <c r="B311" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C311" s="47"/>
-      <c r="D311" s="47"/>
-      <c r="E311" s="47"/>
-      <c r="F311" s="47"/>
-      <c r="G311" s="47"/>
-      <c r="H311" s="47"/>
-      <c r="I311" s="47"/>
+      <c r="C311" s="52"/>
+      <c r="D311" s="52"/>
+      <c r="E311" s="52"/>
+      <c r="F311" s="52"/>
+      <c r="G311" s="52"/>
+      <c r="H311" s="52"/>
+      <c r="I311" s="52"/>
     </row>
     <row r="312" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="8">
+      <c r="A312" s="46">
         <v>5</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C312" s="47"/>
-      <c r="D312" s="47"/>
-      <c r="E312" s="47"/>
-      <c r="F312" s="47"/>
-      <c r="G312" s="47"/>
-      <c r="H312" s="47"/>
-      <c r="I312" s="47"/>
+      <c r="C312" s="52"/>
+      <c r="D312" s="52"/>
+      <c r="E312" s="52"/>
+      <c r="F312" s="52"/>
+      <c r="G312" s="52"/>
+      <c r="H312" s="52"/>
+      <c r="I312" s="52"/>
     </row>
     <row r="313" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8"/>
-      <c r="B313" s="47" t="s">
+      <c r="A313" s="46"/>
+      <c r="B313" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C313" s="47"/>
-      <c r="D313" s="47"/>
-      <c r="E313" s="47"/>
-      <c r="F313" s="47"/>
-      <c r="G313" s="47"/>
-      <c r="H313" s="47"/>
-      <c r="I313" s="47"/>
+      <c r="C313" s="52"/>
+      <c r="D313" s="52"/>
+      <c r="E313" s="52"/>
+      <c r="F313" s="52"/>
+      <c r="G313" s="52"/>
+      <c r="H313" s="52"/>
+      <c r="I313" s="52"/>
     </row>
     <row r="314" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="8"/>
-      <c r="B314" s="47" t="s">
+      <c r="A314" s="46"/>
+      <c r="B314" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C314" s="47"/>
-      <c r="D314" s="47"/>
-      <c r="E314" s="47"/>
-      <c r="F314" s="47"/>
-      <c r="G314" s="47"/>
-      <c r="H314" s="47"/>
-      <c r="I314" s="47"/>
+      <c r="C314" s="52"/>
+      <c r="D314" s="52"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="52"/>
+      <c r="G314" s="52"/>
+      <c r="H314" s="52"/>
+      <c r="I314" s="52"/>
     </row>
     <row r="315" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="8"/>
-      <c r="B315" s="47" t="s">
+      <c r="A315" s="46"/>
+      <c r="B315" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C315" s="47"/>
-      <c r="D315" s="47"/>
-      <c r="E315" s="47"/>
-      <c r="F315" s="47"/>
-      <c r="G315" s="47"/>
-      <c r="H315" s="47"/>
-      <c r="I315" s="47"/>
+      <c r="C315" s="52"/>
+      <c r="D315" s="52"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="52"/>
+      <c r="G315" s="52"/>
+      <c r="H315" s="52"/>
+      <c r="I315" s="52"/>
     </row>
     <row r="316" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="8">
+      <c r="A316" s="46">
         <v>6</v>
       </c>
-      <c r="B316" s="47" t="s">
+      <c r="B316" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C316" s="47"/>
-      <c r="D316" s="47"/>
-      <c r="E316" s="47"/>
-      <c r="F316" s="47"/>
-      <c r="G316" s="47"/>
-      <c r="H316" s="47"/>
-      <c r="I316" s="47"/>
+      <c r="C316" s="52"/>
+      <c r="D316" s="52"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="52"/>
+      <c r="G316" s="52"/>
+      <c r="H316" s="52"/>
+      <c r="I316" s="52"/>
     </row>
     <row r="317" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="8"/>
-      <c r="B317" s="47" t="s">
+      <c r="A317" s="46"/>
+      <c r="B317" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C317" s="47"/>
-      <c r="D317" s="47"/>
-      <c r="E317" s="47"/>
-      <c r="F317" s="47"/>
-      <c r="G317" s="47"/>
-      <c r="H317" s="47"/>
-      <c r="I317" s="47"/>
+      <c r="C317" s="52"/>
+      <c r="D317" s="52"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="52"/>
+      <c r="G317" s="52"/>
+      <c r="H317" s="52"/>
+      <c r="I317" s="52"/>
     </row>
     <row r="318" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="8"/>
-      <c r="B318" s="47" t="s">
+      <c r="A318" s="46"/>
+      <c r="B318" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C318" s="47"/>
-      <c r="D318" s="47"/>
-      <c r="E318" s="47"/>
-      <c r="F318" s="47"/>
-      <c r="G318" s="47"/>
-      <c r="H318" s="47"/>
-      <c r="I318" s="47"/>
+      <c r="C318" s="52"/>
+      <c r="D318" s="52"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="52"/>
+      <c r="G318" s="52"/>
+      <c r="H318" s="52"/>
+      <c r="I318" s="52"/>
     </row>
     <row r="319" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="8">
+      <c r="A319" s="46">
         <v>7</v>
       </c>
-      <c r="B319" s="47" t="s">
+      <c r="B319" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C319" s="47"/>
-      <c r="D319" s="47"/>
-      <c r="E319" s="47"/>
-      <c r="F319" s="47"/>
-      <c r="G319" s="47"/>
-      <c r="H319" s="47"/>
-      <c r="I319" s="47"/>
+      <c r="C319" s="52"/>
+      <c r="D319" s="52"/>
+      <c r="E319" s="52"/>
+      <c r="F319" s="52"/>
+      <c r="G319" s="52"/>
+      <c r="H319" s="52"/>
+      <c r="I319" s="52"/>
     </row>
     <row r="320" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="8">
+      <c r="A320" s="46">
         <v>8</v>
       </c>
-      <c r="B320" s="47" t="s">
+      <c r="B320" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C320" s="47"/>
-      <c r="D320" s="47"/>
-      <c r="E320" s="47"/>
-      <c r="F320" s="47"/>
-      <c r="G320" s="47"/>
-      <c r="H320" s="47"/>
-      <c r="I320" s="47"/>
+      <c r="C320" s="52"/>
+      <c r="D320" s="52"/>
+      <c r="E320" s="52"/>
+      <c r="F320" s="52"/>
+      <c r="G320" s="52"/>
+      <c r="H320" s="52"/>
+      <c r="I320" s="52"/>
     </row>
     <row r="321" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8"/>
-      <c r="B321" s="47" t="s">
+      <c r="A321" s="46"/>
+      <c r="B321" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C321" s="47"/>
-      <c r="D321" s="47"/>
-      <c r="E321" s="47"/>
-      <c r="F321" s="47"/>
-      <c r="G321" s="47"/>
-      <c r="H321" s="47"/>
-      <c r="I321" s="47"/>
+      <c r="C321" s="52"/>
+      <c r="D321" s="52"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="52"/>
+      <c r="G321" s="52"/>
+      <c r="H321" s="52"/>
+      <c r="I321" s="52"/>
     </row>
     <row r="322" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8"/>
-      <c r="B322" s="47" t="s">
+      <c r="A322" s="46"/>
+      <c r="B322" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C322" s="47"/>
-      <c r="D322" s="47"/>
-      <c r="E322" s="47"/>
-      <c r="F322" s="47"/>
-      <c r="G322" s="47"/>
-      <c r="H322" s="47"/>
-      <c r="I322" s="47"/>
+      <c r="C322" s="52"/>
+      <c r="D322" s="52"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
+      <c r="H322" s="52"/>
+      <c r="I322" s="52"/>
     </row>
     <row r="323" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8"/>
-      <c r="B323" s="47" t="s">
+      <c r="A323" s="46"/>
+      <c r="B323" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C323" s="47"/>
-      <c r="D323" s="47"/>
-      <c r="E323" s="47"/>
-      <c r="F323" s="47"/>
-      <c r="G323" s="47"/>
-      <c r="H323" s="47"/>
-      <c r="I323" s="47"/>
+      <c r="C323" s="52"/>
+      <c r="D323" s="52"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
+      <c r="H323" s="52"/>
+      <c r="I323" s="52"/>
     </row>
     <row r="324" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="8"/>
-      <c r="B324" s="47" t="s">
+      <c r="A324" s="46"/>
+      <c r="B324" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="47"/>
-      <c r="D324" s="47"/>
-      <c r="E324" s="47"/>
-      <c r="F324" s="47"/>
-      <c r="G324" s="47"/>
-      <c r="H324" s="47"/>
-      <c r="I324" s="47"/>
+      <c r="C324" s="52"/>
+      <c r="D324" s="52"/>
+      <c r="E324" s="52"/>
+      <c r="F324" s="52"/>
+      <c r="G324" s="52"/>
+      <c r="H324" s="52"/>
+      <c r="I324" s="52"/>
     </row>
     <row r="325" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="8"/>
-      <c r="B325" s="47" t="s">
+      <c r="A325" s="46"/>
+      <c r="B325" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C325" s="47"/>
-      <c r="D325" s="47"/>
-      <c r="E325" s="47"/>
-      <c r="F325" s="47"/>
-      <c r="G325" s="47"/>
-      <c r="H325" s="47"/>
-      <c r="I325" s="47"/>
+      <c r="C325" s="52"/>
+      <c r="D325" s="52"/>
+      <c r="E325" s="52"/>
+      <c r="F325" s="52"/>
+      <c r="G325" s="52"/>
+      <c r="H325" s="52"/>
+      <c r="I325" s="52"/>
     </row>
     <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="8"/>
-      <c r="B326" s="47" t="s">
+      <c r="A326" s="46"/>
+      <c r="B326" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C326" s="47"/>
-      <c r="D326" s="47"/>
-      <c r="E326" s="47"/>
-      <c r="F326" s="47"/>
-      <c r="G326" s="47"/>
-      <c r="H326" s="47"/>
-      <c r="I326" s="47"/>
+      <c r="C326" s="52"/>
+      <c r="D326" s="52"/>
+      <c r="E326" s="52"/>
+      <c r="F326" s="52"/>
+      <c r="G326" s="52"/>
+      <c r="H326" s="52"/>
+      <c r="I326" s="52"/>
     </row>
     <row r="327" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="8">
+      <c r="A327" s="46">
         <v>9</v>
       </c>
-      <c r="B327" s="47" t="s">
+      <c r="B327" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C327" s="47"/>
-      <c r="D327" s="47"/>
-      <c r="E327" s="47"/>
-      <c r="F327" s="47"/>
-      <c r="G327" s="47"/>
-      <c r="H327" s="47"/>
-      <c r="I327" s="47"/>
+      <c r="C327" s="52"/>
+      <c r="D327" s="52"/>
+      <c r="E327" s="52"/>
+      <c r="F327" s="52"/>
+      <c r="G327" s="52"/>
+      <c r="H327" s="52"/>
+      <c r="I327" s="52"/>
     </row>
     <row r="328" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="8">
+      <c r="A328" s="46">
         <v>10</v>
       </c>
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C328" s="47"/>
-      <c r="D328" s="47"/>
-      <c r="E328" s="47"/>
-      <c r="F328" s="47"/>
-      <c r="G328" s="47"/>
-      <c r="H328" s="47"/>
-      <c r="I328" s="47"/>
+      <c r="C328" s="52"/>
+      <c r="D328" s="52"/>
+      <c r="E328" s="52"/>
+      <c r="F328" s="52"/>
+      <c r="G328" s="52"/>
+      <c r="H328" s="52"/>
+      <c r="I328" s="52"/>
     </row>
     <row r="329" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="8"/>
-      <c r="B329" s="47" t="s">
+      <c r="A329" s="46"/>
+      <c r="B329" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C329" s="47"/>
-      <c r="D329" s="47"/>
-      <c r="E329" s="47"/>
-      <c r="F329" s="47"/>
-      <c r="G329" s="47"/>
-      <c r="H329" s="47"/>
-      <c r="I329" s="47"/>
+      <c r="C329" s="52"/>
+      <c r="D329" s="52"/>
+      <c r="E329" s="52"/>
+      <c r="F329" s="52"/>
+      <c r="G329" s="52"/>
+      <c r="H329" s="52"/>
+      <c r="I329" s="52"/>
     </row>
     <row r="330" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="8"/>
-      <c r="B330" s="47" t="s">
+      <c r="A330" s="46"/>
+      <c r="B330" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
+      <c r="C330" s="52"/>
+      <c r="D330" s="52"/>
+      <c r="E330" s="52"/>
+      <c r="F330" s="52"/>
+      <c r="G330" s="52"/>
+      <c r="H330" s="52"/>
+      <c r="I330" s="52"/>
     </row>
     <row r="331" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="8"/>
-      <c r="B331" s="47" t="s">
+      <c r="A331" s="46"/>
+      <c r="B331" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C331" s="47"/>
-      <c r="D331" s="47"/>
-      <c r="E331" s="47"/>
-      <c r="F331" s="47"/>
-      <c r="G331" s="47"/>
-      <c r="H331" s="47"/>
-      <c r="I331" s="47"/>
+      <c r="C331" s="52"/>
+      <c r="D331" s="52"/>
+      <c r="E331" s="52"/>
+      <c r="F331" s="52"/>
+      <c r="G331" s="52"/>
+      <c r="H331" s="52"/>
+      <c r="I331" s="52"/>
     </row>
     <row r="332" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="8"/>
-      <c r="B332" s="47" t="s">
+      <c r="A332" s="46"/>
+      <c r="B332" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C332" s="47"/>
-      <c r="D332" s="47"/>
-      <c r="E332" s="47"/>
-      <c r="F332" s="47"/>
-      <c r="G332" s="47"/>
-      <c r="H332" s="47"/>
-      <c r="I332" s="47"/>
+      <c r="C332" s="52"/>
+      <c r="D332" s="52"/>
+      <c r="E332" s="52"/>
+      <c r="F332" s="52"/>
+      <c r="G332" s="52"/>
+      <c r="H332" s="52"/>
+      <c r="I332" s="52"/>
     </row>
     <row r="333" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="8">
+      <c r="A333" s="46">
         <v>11</v>
       </c>
-      <c r="B333" s="47" t="s">
+      <c r="B333" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C333" s="47"/>
-      <c r="D333" s="47"/>
-      <c r="E333" s="47"/>
-      <c r="F333" s="47"/>
-      <c r="G333" s="47"/>
-      <c r="H333" s="47"/>
-      <c r="I333" s="47"/>
+      <c r="C333" s="52"/>
+      <c r="D333" s="52"/>
+      <c r="E333" s="52"/>
+      <c r="F333" s="52"/>
+      <c r="G333" s="52"/>
+      <c r="H333" s="52"/>
+      <c r="I333" s="52"/>
     </row>
     <row r="334" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="8"/>
-      <c r="B334" s="47" t="s">
+      <c r="A334" s="46"/>
+      <c r="B334" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C334" s="47"/>
-      <c r="D334" s="47"/>
-      <c r="E334" s="47"/>
-      <c r="F334" s="47"/>
-      <c r="G334" s="47"/>
-      <c r="H334" s="47"/>
-      <c r="I334" s="47"/>
+      <c r="C334" s="52"/>
+      <c r="D334" s="52"/>
+      <c r="E334" s="52"/>
+      <c r="F334" s="52"/>
+      <c r="G334" s="52"/>
+      <c r="H334" s="52"/>
+      <c r="I334" s="52"/>
     </row>
     <row r="335" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="8"/>
-      <c r="B335" s="47" t="s">
+      <c r="A335" s="46"/>
+      <c r="B335" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C335" s="47"/>
-      <c r="D335" s="47"/>
-      <c r="E335" s="47"/>
-      <c r="F335" s="47"/>
-      <c r="G335" s="47"/>
-      <c r="H335" s="47"/>
-      <c r="I335" s="47"/>
+      <c r="C335" s="52"/>
+      <c r="D335" s="52"/>
+      <c r="E335" s="52"/>
+      <c r="F335" s="52"/>
+      <c r="G335" s="52"/>
+      <c r="H335" s="52"/>
+      <c r="I335" s="52"/>
     </row>
     <row r="336" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="8">
+      <c r="A336" s="46">
         <v>12</v>
       </c>
-      <c r="B336" s="47" t="s">
+      <c r="B336" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C336" s="47"/>
-      <c r="D336" s="47"/>
-      <c r="E336" s="47"/>
-      <c r="F336" s="47"/>
-      <c r="G336" s="47"/>
-      <c r="H336" s="47"/>
-      <c r="I336" s="47"/>
+      <c r="C336" s="52"/>
+      <c r="D336" s="52"/>
+      <c r="E336" s="52"/>
+      <c r="F336" s="52"/>
+      <c r="G336" s="52"/>
+      <c r="H336" s="52"/>
+      <c r="I336" s="52"/>
     </row>
     <row r="337" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="8"/>
-      <c r="B337" s="47" t="s">
+      <c r="A337" s="46"/>
+      <c r="B337" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C337" s="47"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="47"/>
-      <c r="F337" s="47"/>
-      <c r="G337" s="47"/>
-      <c r="H337" s="47"/>
-      <c r="I337" s="47"/>
+      <c r="C337" s="52"/>
+      <c r="D337" s="52"/>
+      <c r="E337" s="52"/>
+      <c r="F337" s="52"/>
+      <c r="G337" s="52"/>
+      <c r="H337" s="52"/>
+      <c r="I337" s="52"/>
     </row>
     <row r="338" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="8"/>
-      <c r="B338" s="47" t="s">
+      <c r="A338" s="46"/>
+      <c r="B338" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C338" s="47"/>
-      <c r="D338" s="47"/>
-      <c r="E338" s="47"/>
-      <c r="F338" s="47"/>
-      <c r="G338" s="47"/>
-      <c r="H338" s="47"/>
-      <c r="I338" s="47"/>
+      <c r="C338" s="52"/>
+      <c r="D338" s="52"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
+      <c r="H338" s="52"/>
+      <c r="I338" s="52"/>
     </row>
     <row r="339" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="8"/>
-      <c r="B339" s="47" t="s">
+      <c r="A339" s="46"/>
+      <c r="B339" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C339" s="47"/>
-      <c r="D339" s="47"/>
-      <c r="E339" s="47"/>
-      <c r="F339" s="47"/>
-      <c r="G339" s="47"/>
-      <c r="H339" s="47"/>
-      <c r="I339" s="47"/>
+      <c r="C339" s="52"/>
+      <c r="D339" s="52"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
+      <c r="H339" s="52"/>
+      <c r="I339" s="52"/>
     </row>
     <row r="340" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="8"/>
-      <c r="B340" s="47" t="s">
+      <c r="A340" s="46"/>
+      <c r="B340" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C340" s="47"/>
-      <c r="D340" s="47"/>
-      <c r="E340" s="47"/>
-      <c r="F340" s="47"/>
-      <c r="G340" s="47"/>
-      <c r="H340" s="47"/>
-      <c r="I340" s="47"/>
+      <c r="C340" s="52"/>
+      <c r="D340" s="52"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="52"/>
+      <c r="G340" s="52"/>
+      <c r="H340" s="52"/>
+      <c r="I340" s="52"/>
     </row>
     <row r="341" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8">
+      <c r="A341" s="46">
         <v>13</v>
       </c>
-      <c r="B341" s="47" t="s">
+      <c r="B341" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C341" s="47"/>
-      <c r="D341" s="47"/>
-      <c r="E341" s="47"/>
-      <c r="F341" s="47"/>
-      <c r="G341" s="47"/>
-      <c r="H341" s="47"/>
-      <c r="I341" s="47"/>
+      <c r="C341" s="52"/>
+      <c r="D341" s="52"/>
+      <c r="E341" s="52"/>
+      <c r="F341" s="52"/>
+      <c r="G341" s="52"/>
+      <c r="H341" s="52"/>
+      <c r="I341" s="52"/>
     </row>
     <row r="342" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8"/>
-      <c r="B342" s="47" t="s">
+      <c r="A342" s="46"/>
+      <c r="B342" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C342" s="47"/>
-      <c r="D342" s="47"/>
-      <c r="E342" s="47"/>
-      <c r="F342" s="47"/>
-      <c r="G342" s="47"/>
-      <c r="H342" s="47"/>
-      <c r="I342" s="47"/>
+      <c r="C342" s="52"/>
+      <c r="D342" s="52"/>
+      <c r="E342" s="52"/>
+      <c r="F342" s="52"/>
+      <c r="G342" s="52"/>
+      <c r="H342" s="52"/>
+      <c r="I342" s="52"/>
     </row>
     <row r="343" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8"/>
-      <c r="B343" s="47" t="s">
+      <c r="A343" s="46"/>
+      <c r="B343" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C343" s="47"/>
-      <c r="D343" s="47"/>
-      <c r="E343" s="47"/>
-      <c r="F343" s="47"/>
-      <c r="G343" s="47"/>
-      <c r="H343" s="47"/>
-      <c r="I343" s="47"/>
+      <c r="C343" s="52"/>
+      <c r="D343" s="52"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="52"/>
+      <c r="G343" s="52"/>
+      <c r="H343" s="52"/>
+      <c r="I343" s="52"/>
     </row>
     <row r="344" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8">
+      <c r="A344" s="46">
         <v>14</v>
       </c>
-      <c r="B344" s="47" t="s">
+      <c r="B344" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C344" s="47"/>
-      <c r="D344" s="47"/>
-      <c r="E344" s="47"/>
-      <c r="F344" s="47"/>
-      <c r="G344" s="47"/>
-      <c r="H344" s="47"/>
-      <c r="I344" s="47"/>
+      <c r="C344" s="52"/>
+      <c r="D344" s="52"/>
+      <c r="E344" s="52"/>
+      <c r="F344" s="52"/>
+      <c r="G344" s="52"/>
+      <c r="H344" s="52"/>
+      <c r="I344" s="52"/>
     </row>
     <row r="345" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="8"/>
-      <c r="B345" s="47" t="s">
+      <c r="A345" s="46"/>
+      <c r="B345" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C345" s="47"/>
-      <c r="D345" s="47"/>
-      <c r="E345" s="47"/>
-      <c r="F345" s="47"/>
-      <c r="G345" s="47"/>
-      <c r="H345" s="47"/>
-      <c r="I345" s="47"/>
+      <c r="C345" s="52"/>
+      <c r="D345" s="52"/>
+      <c r="E345" s="52"/>
+      <c r="F345" s="52"/>
+      <c r="G345" s="52"/>
+      <c r="H345" s="52"/>
+      <c r="I345" s="52"/>
     </row>
     <row r="346" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="8"/>
-      <c r="B346" s="47" t="s">
+      <c r="A346" s="46"/>
+      <c r="B346" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C346" s="47"/>
-      <c r="D346" s="47"/>
-      <c r="E346" s="47"/>
-      <c r="F346" s="47"/>
-      <c r="G346" s="47"/>
-      <c r="H346" s="47"/>
-      <c r="I346" s="47"/>
+      <c r="C346" s="52"/>
+      <c r="D346" s="52"/>
+      <c r="E346" s="52"/>
+      <c r="F346" s="52"/>
+      <c r="G346" s="52"/>
+      <c r="H346" s="52"/>
+      <c r="I346" s="52"/>
     </row>
     <row r="347" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="8"/>
-      <c r="B347" s="47" t="s">
+      <c r="A347" s="46"/>
+      <c r="B347" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C347" s="47"/>
-      <c r="D347" s="47"/>
-      <c r="E347" s="47"/>
-      <c r="F347" s="47"/>
-      <c r="G347" s="47"/>
-      <c r="H347" s="47"/>
-      <c r="I347" s="47"/>
+      <c r="C347" s="52"/>
+      <c r="D347" s="52"/>
+      <c r="E347" s="52"/>
+      <c r="F347" s="52"/>
+      <c r="G347" s="52"/>
+      <c r="H347" s="52"/>
+      <c r="I347" s="52"/>
     </row>
     <row r="348" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="8"/>
-      <c r="B348" s="47" t="s">
+      <c r="A348" s="46"/>
+      <c r="B348" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C348" s="47"/>
-      <c r="D348" s="47"/>
-      <c r="E348" s="47"/>
-      <c r="F348" s="47"/>
-      <c r="G348" s="47"/>
-      <c r="H348" s="47"/>
-      <c r="I348" s="47"/>
+      <c r="C348" s="52"/>
+      <c r="D348" s="52"/>
+      <c r="E348" s="52"/>
+      <c r="F348" s="52"/>
+      <c r="G348" s="52"/>
+      <c r="H348" s="52"/>
+      <c r="I348" s="52"/>
     </row>
     <row r="349" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="8">
+      <c r="A349" s="46">
         <v>15</v>
       </c>
-      <c r="B349" s="47" t="s">
+      <c r="B349" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C349" s="47"/>
-      <c r="D349" s="47"/>
-      <c r="E349" s="47"/>
-      <c r="F349" s="47"/>
-      <c r="G349" s="47"/>
-      <c r="H349" s="47"/>
-      <c r="I349" s="47"/>
+      <c r="C349" s="52"/>
+      <c r="D349" s="52"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
+      <c r="H349" s="52"/>
+      <c r="I349" s="52"/>
     </row>
     <row r="350" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="8">
+      <c r="A350" s="46">
         <v>16</v>
       </c>
-      <c r="B350" s="47" t="s">
+      <c r="B350" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C350" s="47"/>
-      <c r="D350" s="47"/>
-      <c r="E350" s="47"/>
-      <c r="F350" s="47"/>
-      <c r="G350" s="47"/>
-      <c r="H350" s="47"/>
-      <c r="I350" s="47"/>
+      <c r="C350" s="52"/>
+      <c r="D350" s="52"/>
+      <c r="E350" s="52"/>
+      <c r="F350" s="52"/>
+      <c r="G350" s="52"/>
+      <c r="H350" s="52"/>
+      <c r="I350" s="52"/>
     </row>
     <row r="351" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="8">
+      <c r="A351" s="46">
         <v>17</v>
       </c>
-      <c r="B351" s="47" t="s">
+      <c r="B351" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C351" s="47"/>
-      <c r="D351" s="47"/>
-      <c r="E351" s="47"/>
-      <c r="F351" s="47"/>
-      <c r="G351" s="47"/>
-      <c r="H351" s="47"/>
-      <c r="I351" s="47"/>
+      <c r="C351" s="52"/>
+      <c r="D351" s="52"/>
+      <c r="E351" s="52"/>
+      <c r="F351" s="52"/>
+      <c r="G351" s="52"/>
+      <c r="H351" s="52"/>
+      <c r="I351" s="52"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352" s="27"/>
+      <c r="A352" s="47"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="27"/>
+      <c r="A353" s="47"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="27"/>
+      <c r="A354" s="47"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="27"/>
+      <c r="A355" s="47"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="27"/>
+      <c r="A356" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="85">
